--- a/INSight_BillOfMaterials.xlsx
+++ b/INSight_BillOfMaterials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bscov\Documents\Papers\Purdue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43E6B6-A1C4-4977-A8C1-E8B7E1BB06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9C42A5-6A3C-4193-B39F-7809B524E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -305,6 +305,33 @@
   </si>
   <si>
     <t>https://store-usa.arduino.cc/collections/boards/products/arduino-due</t>
+  </si>
+  <si>
+    <t>Pogo Pins</t>
+  </si>
+  <si>
+    <t>PRT-09174-ND</t>
+  </si>
+  <si>
+    <t>Used to optimally interface the laser diode to the PCB</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/PRT-09174/7393702</t>
+  </si>
+  <si>
+    <t>Base System</t>
+  </si>
+  <si>
+    <t>PCB Peripherals</t>
+  </si>
+  <si>
+    <t>Optic Peripherials</t>
+  </si>
+  <si>
+    <t>Arduino Option</t>
   </si>
 </sst>
 </file>
@@ -801,17 +828,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -867,17 +896,17 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
@@ -1324,10 +1353,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="13">
-        <v>31670384</v>
+        <v>95</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
@@ -1336,105 +1365,138 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="I19" s="13">
+        <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K19" s="13">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="B20" s="13">
+        <v>31670384</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K20" s="13">
-        <v>102.8</v>
+        <v>0.99</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="E21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I21" s="13">
         <v>1</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K21" s="13">
-        <v>40.299999999999997</v>
+        <v>102.8</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="13">
+        <v>40.299999999999997</v>
+      </c>
       <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
